--- a/assets/spreadsheets/Uploaded Result.xlsx
+++ b/assets/spreadsheets/Uploaded Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="103">
   <si>
     <t/>
   </si>
@@ -62,40 +62,265 @@
     <t>Results</t>
   </si>
   <si>
-    <t>mr.</t>
-  </si>
-  <si>
-    <t>sfd</t>
-  </si>
-  <si>
-    <t>dgf</t>
+    <t>ADDRESS,COUNTRY,DATEOFBIRTH,DISTRICT,EMAIL,FIRSTNAME,GENDER,LASTNAME,MOBILE,NAMETITLE,PINCODE,ROLENAMES,STATE,STREET missing</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>01/01/1985</t>
+  </si>
+  <si>
+    <t>1234 Main St.</t>
+  </si>
+  <si>
+    <t>1st Ave.</t>
+  </si>
+  <si>
+    <t>District 1</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>user123@example.com</t>
+  </si>
+  <si>
+    <t>Admin,Client,Editor</t>
+  </si>
+  <si>
+    <t>UPDATED</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Johnson</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>08/08/2025</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>sgfd</t>
-  </si>
-  <si>
-    <t>dgfs</t>
-  </si>
-  <si>
-    <t>dfgs</t>
-  </si>
-  <si>
-    <t>ram@gmail.com</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>INSERTED</t>
+    <t>02/01/1985</t>
+  </si>
+  <si>
+    <t>5678 Elm St.</t>
+  </si>
+  <si>
+    <t>2nd Ave.</t>
+  </si>
+  <si>
+    <t>District 2</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>user456@example.com</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>03/01/1985</t>
+  </si>
+  <si>
+    <t>9102 Oak St.</t>
+  </si>
+  <si>
+    <t>3rd Ave.</t>
+  </si>
+  <si>
+    <t>District 3</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>user789@example.com</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>04/01/1985</t>
+  </si>
+  <si>
+    <t>2345 Pine St.</t>
+  </si>
+  <si>
+    <t>4th Ave.</t>
+  </si>
+  <si>
+    <t>District 4</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>user234@example.com</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>05/01/1985</t>
+  </si>
+  <si>
+    <t>6789 Cedar St.</t>
+  </si>
+  <si>
+    <t>5th Ave.</t>
+  </si>
+  <si>
+    <t>District 5</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>user345@example.com</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>06/01/1985</t>
+  </si>
+  <si>
+    <t>4321 Maple St.</t>
+  </si>
+  <si>
+    <t>6th Ave.</t>
+  </si>
+  <si>
+    <t>District 6</t>
+  </si>
+  <si>
+    <t>user654@example.com</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>07/01/1985</t>
+  </si>
+  <si>
+    <t>3210 Ash St.</t>
+  </si>
+  <si>
+    <t>7th Ave.</t>
+  </si>
+  <si>
+    <t>District 7</t>
+  </si>
+  <si>
+    <t>user321@example.com</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>08/01/1985</t>
+  </si>
+  <si>
+    <t>8765 Birch St.</t>
+  </si>
+  <si>
+    <t>8th Ave.</t>
+  </si>
+  <si>
+    <t>District 8</t>
+  </si>
+  <si>
+    <t>user987@example.com</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>09/01/1985</t>
+  </si>
+  <si>
+    <t>1235 Oak St.</t>
+  </si>
+  <si>
+    <t>9th Ave.</t>
+  </si>
+  <si>
+    <t>District 9</t>
+  </si>
+  <si>
+    <t>user876@example.com</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>10/01/1985</t>
+  </si>
+  <si>
+    <t>6780 Main St.</t>
+  </si>
+  <si>
+    <t>10th Ave.</t>
+  </si>
+  <si>
+    <t>District 10</t>
+  </si>
+  <si>
+    <t>user543@example.com</t>
+  </si>
+  <si>
+    <t>sara@example.com</t>
   </si>
 </sst>
 </file>
@@ -140,27 +365,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="12" max="12" width="15.84375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="135.578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.484375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="22.24609375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="18.55078125" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="11.3828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.54296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.30859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="7.53515625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="9.0234375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="6.5390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="9.57421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="10.16015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.62109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="12.34765625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="9.79296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -212,49 +437,566 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="n">
-        <v>629001.0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="n">
-        <v>9.595126578E9</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="K3" t="n">
+        <v>902101.0</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.551234567E9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="n">
+        <v>123456.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.552345678E9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="n">
+        <v>678901.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.553456789E9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="n">
+        <v>112233.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.55456789E9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="n">
+        <v>445566.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.555678901E9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="n">
+        <v>778899.0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.556789012E9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="n">
+        <v>334455.0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.557890123E9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="n">
+        <v>667788.0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.558901234E9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="n">
+        <v>112344.0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.559012345E9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="n">
+        <v>445677.0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5.551239876E9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="n">
+        <v>445677.0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5.551239876E9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
